--- a/res/testcase/statisticalAnalysis/temporaryReport.xlsx
+++ b/res/testcase/statisticalAnalysis/temporaryReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
   <si>
     <t>动作</t>
   </si>
@@ -432,10 +432,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -453,11 +453,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,7 +477,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,23 +558,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -516,86 +589,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -612,13 +612,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +756,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,157 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,6 +835,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -845,6 +860,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,6 +897,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -892,45 +931,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -939,145 +939,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2055,7 +2055,7 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2285,10 +2285,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2398,13 +2398,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2413,54 +2413,99 @@
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C11:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C2:C4 C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C12 C13 C2:C4 C7:C8 C10:C11">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/testcase/statisticalAnalysis/temporaryReport.xlsx
+++ b/res/testcase/statisticalAnalysis/temporaryReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="137">
   <si>
     <t>动作</t>
   </si>
@@ -367,13 +367,16 @@
     <t>11</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>TemporaryReportPage.记录列表</t>
   </si>
   <si>
     <t>$全局变量.停车场名称</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>2筛选界面</t>
@@ -454,30 +457,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,6 +502,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -508,6 +519,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,56 +585,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,25 +615,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,78 +772,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,6 +837,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -845,6 +887,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,65 +934,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -939,10 +942,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,133 +954,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1820,10 +1823,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2008,39 +2011,54 @@
         <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="14" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>119</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C13 C2:C4 C7:C9 C10:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C12 C13 C14 C2:C4 C7:C9 C10:C11">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -2166,7 +2184,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
@@ -2181,7 +2199,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
@@ -2196,7 +2214,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
@@ -2211,13 +2229,13 @@
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2226,13 +2244,13 @@
         <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -2247,15 +2265,15 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>97</v>
@@ -2265,7 +2283,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2305,7 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2443,13 +2461,13 @@
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2464,10 +2482,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2482,21 +2500,21 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" s="3"/>
     </row>

--- a/res/testcase/statisticalAnalysis/temporaryReport.xlsx
+++ b/res/testcase/statisticalAnalysis/temporaryReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -424,10 +424,10 @@
     <t>2详情界面</t>
   </si>
   <si>
-    <t>点击确定</t>
-  </si>
-  <si>
-    <t>TemporaryReportPage.确定-提示</t>
+    <t>点击关闭</t>
+  </si>
+  <si>
+    <t>TemporaryReportPage.关闭-提示</t>
   </si>
 </sst>
 </file>
@@ -1825,7 +1825,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2305,8 +2305,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/statisticalAnalysis/temporaryReport.xlsx
+++ b/res/testcase/statisticalAnalysis/temporaryReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20925" windowHeight="9840" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
   <si>
     <t>动作</t>
   </si>
@@ -409,6 +409,15 @@
     <t>操作成功，请打开右上角下载中心界面进行下载</t>
   </si>
   <si>
+    <t>$全局变量.筛选数据停车场名称;off</t>
+  </si>
+  <si>
+    <t>TemporaryReportPage.时间维度</t>
+  </si>
+  <si>
+    <t>年报</t>
+  </si>
+  <si>
     <t>点击详情</t>
   </si>
   <si>
@@ -422,6 +431,9 @@
   </si>
   <si>
     <t>2详情界面</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>点击关闭</t>
@@ -435,10 +447,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -456,16 +468,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,25 +514,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,15 +536,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,51 +582,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,6 +595,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -615,12 +627,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -645,151 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,45 +849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -887,26 +860,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,8 +882,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,10 +954,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,133 +966,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1826,7 +1838,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E10" sqref="A10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2074,7 +2086,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2303,10 +2315,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2416,13 +2428,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2431,99 +2443,135 @@
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C16:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C12 C13 C2:C4 C7:C8 C10:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C14 C15 C2:C4 C7:C8 C12:C13">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
